--- a/src/graphs+excel_directory/generated_spreadsheet.xlsx
+++ b/src/graphs+excel_directory/generated_spreadsheet.xlsx
@@ -12,13 +12,14 @@
     <sheet name="simple_exponential_smoothing" sheetId="3" r:id="rId3"/>
     <sheet name="holt_trend_exp_smoothing" sheetId="4" r:id="rId4"/>
     <sheet name="winter_trendseason" sheetId="5" r:id="rId5"/>
+    <sheet name="Find_EOQ_cycle_inventory" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
   <si>
     <t>Year</t>
   </si>
@@ -75,6 +76,24 @@
   </si>
   <si>
     <t>Seasonal Factor</t>
+  </si>
+  <si>
+    <t>Annual demand (Forecasted,cumulative)</t>
+  </si>
+  <si>
+    <t>Shipment cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holding cost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material Cost </t>
+  </si>
+  <si>
+    <t>OPTIMAL LOT SIZE</t>
+  </si>
+  <si>
+    <t>Cycle Inventory</t>
   </si>
 </sst>
 </file>
@@ -2379,22 +2398,22 @@
     </row>
     <row r="15" spans="1:12">
       <c r="E15">
-        <v>30811.26972338644</v>
+        <v>31984.28524339265</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="E16">
-        <v>33894.11957028352</v>
+        <v>33525.71016684119</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17">
-        <v>38518.39434062913</v>
+        <v>35067.13509028972</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18">
-        <v>44684.09403442328</v>
+        <v>36608.56001373826</v>
       </c>
     </row>
   </sheetData>
@@ -3001,4 +3020,61 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>365426.2409622364</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>0.2</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1911.612515553914</v>
+      </c>
+      <c r="B4">
+        <v>955.8062577769572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>